--- a/bao.xlsx
+++ b/bao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neptune\Documents\GitHub\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,13 +20,13 @@
     <sheet name="Test Report" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module1!$A$8:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module1!$A$8:$H$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Module2!$A$8:$H$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestDesign!$A$1:$F$15</definedName>
     <definedName name="_Toc301930468" localSheetId="2">TestDesign!#REF!</definedName>
     <definedName name="_Toc301930478" localSheetId="2">TestDesign!#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">TestDesign!$A$1:$F$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">TestDesign!$A$1:$F$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="279">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -390,40 +390,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Brief description of this case: what is tested?&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ex: Test viewing "Company" form.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;Describe steps to perform this case&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ex:
-1. Login the system with Manager role.
-2. Click "Company" tab in the left menu.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;List all test cases or conditions that must be done before performing this case&gt;
-</t>
   </si>
   <si>
     <t>&lt;Test case 2&gt;</t>
@@ -710,26 +676,6 @@
     <t>Now + 1 day</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;Describe results which meet customer's requirement&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ex:
-The "Company" view form is displayed with the following informations:
-- Company name
-- Company address
-- Phone
-- Fax</t>
-    </r>
-  </si>
-  <si>
     <t>Test the default value of controls</t>
   </si>
   <si>
@@ -853,9 +799,6 @@
     <t xml:space="preserve">The values of the result table are sorted descending by [Priority field] </t>
   </si>
   <si>
-    <t>[Module1-12]</t>
-  </si>
-  <si>
     <t>Test sort by [Status field]</t>
   </si>
   <si>
@@ -871,9 +814,6 @@
     <t xml:space="preserve">The values of the result table are sorted descending by [Status field] </t>
   </si>
   <si>
-    <t>[Module1-14]</t>
-  </si>
-  <si>
     <t>Test sort by [Defect Owner field]</t>
   </si>
   <si>
@@ -889,9 +829,6 @@
     <t xml:space="preserve">The values of the result table are sorted descending by [Defect Owner field] </t>
   </si>
   <si>
-    <t>[Module1-16]</t>
-  </si>
-  <si>
     <t>Test sort by [Assigned To field]</t>
   </si>
   <si>
@@ -907,9 +844,6 @@
     <t xml:space="preserve">The values of the result table are sorted descending by [Assigned To field] </t>
   </si>
   <si>
-    <t>[Module1-18]</t>
-  </si>
-  <si>
     <t>Test sort by [Created By field]</t>
   </si>
   <si>
@@ -925,9 +859,6 @@
     <t xml:space="preserve">The values of the result table are sorted descending by [Created By field] </t>
   </si>
   <si>
-    <t>[Module1-20]</t>
-  </si>
-  <si>
     <t>Test sort by [Fixed Date field]</t>
   </si>
   <si>
@@ -943,9 +874,6 @@
     <t xml:space="preserve">The values of the result table are sorted descending by [Fixed Date field] </t>
   </si>
   <si>
-    <t>[Module1-22]</t>
-  </si>
-  <si>
     <t>Test sort by [Due Date field]</t>
   </si>
   <si>
@@ -959,9 +887,6 @@
   </si>
   <si>
     <t xml:space="preserve">The values of the result table are sorted descending by [Due Date field] </t>
-  </si>
-  <si>
-    <t>[Module1-24]</t>
   </si>
   <si>
     <t>Function Validate</t>
@@ -1024,9 +949,6 @@
 3. Click [Search]</t>
   </si>
   <si>
-    <t>Test filter by [DefectID]</t>
-  </si>
-  <si>
     <t>1. Input [DefectID] = 123
 2. Click [Search]</t>
   </si>
@@ -1043,12 +965,6 @@
     <t>1. Click [Add New]</t>
   </si>
   <si>
-    <t>The page layout is displayed like the following page:……….</t>
-  </si>
-  <si>
-    <t>Test [Batch Update]</t>
-  </si>
-  <si>
     <t>1. Click [Batch Update]</t>
   </si>
   <si>
@@ -1073,37 +989,169 @@
     <t>Input filter fields, click [Search] and check the filter result</t>
   </si>
   <si>
-    <t>Click [Add New]</t>
-  </si>
-  <si>
-    <t>Input [Created form date] &gt; [Created to date] in List defect screen - Click [Search]</t>
-  </si>
-  <si>
-    <t>Input [Fixed form date] &gt; [Fixed to date] in List defect screen - Click [Search]</t>
-  </si>
-  <si>
-    <t>Input wrong [Created form date] format in List defect screen - Click [Search]</t>
-  </si>
-  <si>
-    <t>Input wrong [Created to date] format in List defect screen - Click [Search]</t>
-  </si>
-  <si>
-    <t>Input wrong [Fixed form date] format in List defect screen - Click [Search]</t>
-  </si>
-  <si>
-    <t>Input wrong [Fixed to date] format in List defect screen - Click [Search]</t>
-  </si>
-  <si>
-    <t>Input wrong [DefectID] format in List defect screen - Click [Search]</t>
-  </si>
-  <si>
-    <t>Input wrong [Selected page] format in List defect screen - Click [Go]</t>
-  </si>
-  <si>
-    <t>Input out of range [Selected page] in List defect screen - Click [Go]</t>
-  </si>
-  <si>
-    <t>Click [Batch Update]</t>
+    <t>The page layout is displayed like the following image:………</t>
+  </si>
+  <si>
+    <t>Check at least one defect then Click [Batch Update]</t>
+  </si>
+  <si>
+    <t>The message box error is displayed with the following text "Please select defects to do this action"</t>
+  </si>
+  <si>
+    <t>Test [Batch Update] - Not Success</t>
+  </si>
+  <si>
+    <t>Test [Batch Update] - Success</t>
+  </si>
+  <si>
+    <t>1. Select 1 or more defects
+2. Click [Batch Update]</t>
+  </si>
+  <si>
+    <t>Test filter by [DefectID] - input wrong format</t>
+  </si>
+  <si>
+    <t>1. Input [DefectID] = -1
+2. Click [Search]</t>
+  </si>
+  <si>
+    <t>The message box error is displayed with the following text "Please enter positive number for DefectId"</t>
+  </si>
+  <si>
+    <t>1. Input [DefectID] = aaa
+2. Click [Search]</t>
+  </si>
+  <si>
+    <t>1. Input [DefectID] = [space]
+2. Click [Search]</t>
+  </si>
+  <si>
+    <t>Test filter by [DefectID] - input right format</t>
+  </si>
+  <si>
+    <t>Click [Add New] - Check layout of Add New screen</t>
+  </si>
+  <si>
+    <t>All check boxes are unchecked - Click [Batch Update]</t>
+  </si>
+  <si>
+    <t>Test Paging - input wrong format</t>
+  </si>
+  <si>
+    <t>1. Input [Selected page] = 0
+2. Click [Go]</t>
+  </si>
+  <si>
+    <t>The message box error is displayed with the following text "Invalid number"</t>
+  </si>
+  <si>
+    <t>1. Input [Selected page] = 09
+2. Click [Go]</t>
+  </si>
+  <si>
+    <t>Have 3 pages before do the test</t>
+  </si>
+  <si>
+    <t>1. Input [Selected page] = 04
+2. Click [Go]</t>
+  </si>
+  <si>
+    <t>1. Input [Selected page] = 01
+2. Click [Go]</t>
+  </si>
+  <si>
+    <t>The table is displayed the defects in page 1</t>
+  </si>
+  <si>
+    <t>Test Paging - input right format</t>
+  </si>
+  <si>
+    <t>Input wrong [DefectID] format - Click [Search]</t>
+  </si>
+  <si>
+    <t>Input wrong [Selected page] format - Click [Go]</t>
+  </si>
+  <si>
+    <t>Input out of range [Selected page] - Click [Go]</t>
+  </si>
+  <si>
+    <t>Click [Next], [Prev] link</t>
+  </si>
+  <si>
+    <t>Input wrong [Fixed to date] format - Click [Search]</t>
+  </si>
+  <si>
+    <t>Input wrong [Fixed form date] format - Click [Search]</t>
+  </si>
+  <si>
+    <t>Input wrong [Created to date] format - Click [Search]</t>
+  </si>
+  <si>
+    <t>Input wrong [Created form date] format - Click [Search]</t>
+  </si>
+  <si>
+    <t>Input [Fixed form date] &gt; [Fixed to date] - Click [Search]</t>
+  </si>
+  <si>
+    <t>Input [Created form date] &gt; [Created to date] - Click [Search]</t>
+  </si>
+  <si>
+    <t>Test Paging link</t>
+  </si>
+  <si>
+    <t>1. Click [Next]</t>
+  </si>
+  <si>
+    <t>Have 3 pages before do the test, current page = 1</t>
+  </si>
+  <si>
+    <t>Before the test: [Prev] is invisible
+After the test: [Prev] is visible [Selected page] equal 2</t>
+  </si>
+  <si>
+    <t>[Module1-39]</t>
+  </si>
+  <si>
+    <t>[Module1-1]</t>
+  </si>
+  <si>
+    <t>[Module1-13]</t>
+  </si>
+  <si>
+    <t>[Module1-15]</t>
+  </si>
+  <si>
+    <t>[Module1-17]</t>
+  </si>
+  <si>
+    <t>[Module1-19]</t>
+  </si>
+  <si>
+    <t>[Module1-21]</t>
+  </si>
+  <si>
+    <t>[Module1-23]</t>
+  </si>
+  <si>
+    <t>Before the test: [Next] is visible
+After the test: [Next] is invisible [Selected page] equal 3</t>
+  </si>
+  <si>
+    <t>Before the test: [Next] is invisible
+After the test: [Next] is visible [Selected page] equal 2</t>
+  </si>
+  <si>
+    <t>1. Click [Prev]</t>
+  </si>
+  <si>
+    <t>[Module1-40]</t>
+  </si>
+  <si>
+    <t>[Module1-41]</t>
+  </si>
+  <si>
+    <t>Before the test: [Prev] is visible
+After the test: [Prev] is invisible [Selected page] equal 1</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1866,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2201,6 +2249,12 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2229,21 +2283,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2262,14 +2319,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2662,14 +2713,14 @@
   <sheetData>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="150"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="5"/>
@@ -2680,11 +2731,11 @@
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2694,36 +2745,36 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="147" t="str">
+      <c r="C6" s="149" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="146"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
@@ -2778,7 +2829,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" ht="21.75" customHeight="1">
@@ -2879,39 +2930,39 @@
       <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="154" t="str">
+      <c r="C3" s="155"/>
+      <c r="D3" s="156" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="153"/>
-      <c r="D4" s="154" t="str">
+      <c r="C4" s="155"/>
+      <c r="D4" s="156" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
     </row>
     <row r="5" spans="2:6" s="42" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152" t="s">
+      <c r="C5" s="153"/>
+      <c r="D5" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="43"/>
@@ -3092,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="13.8"/>
@@ -3109,19 +3160,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="123" customFormat="1" ht="26.4">
       <c r="A1" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="E1" s="73" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>74</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>47</v>
@@ -3129,19 +3180,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="157" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" s="157" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="157" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="124" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E2" s="125" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F2" s="124"/>
     </row>
@@ -3150,10 +3201,10 @@
       <c r="B3" s="158"/>
       <c r="C3" s="158"/>
       <c r="D3" s="124" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F3" s="124"/>
     </row>
@@ -3162,10 +3213,10 @@
       <c r="B4" s="158"/>
       <c r="C4" s="158"/>
       <c r="D4" s="124" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" s="125" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F4" s="124"/>
     </row>
@@ -3174,10 +3225,10 @@
       <c r="B5" s="158"/>
       <c r="C5" s="158"/>
       <c r="D5" s="124" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" s="124"/>
     </row>
@@ -3186,10 +3237,10 @@
       <c r="B6" s="158"/>
       <c r="C6" s="158"/>
       <c r="D6" s="124" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E6" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="124"/>
     </row>
@@ -3198,10 +3249,10 @@
       <c r="B7" s="158"/>
       <c r="C7" s="159"/>
       <c r="D7" s="124" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F7" s="124"/>
     </row>
@@ -3209,13 +3260,13 @@
       <c r="A8" s="158"/>
       <c r="B8" s="158"/>
       <c r="C8" s="157" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F8" s="124"/>
     </row>
@@ -3224,13 +3275,13 @@
       <c r="B9" s="158"/>
       <c r="C9" s="158"/>
       <c r="D9" s="124" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" s="124" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3238,10 +3289,10 @@
       <c r="B10" s="158"/>
       <c r="C10" s="159"/>
       <c r="D10" s="124" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F10" s="124"/>
     </row>
@@ -3249,13 +3300,13 @@
       <c r="A11" s="158"/>
       <c r="B11" s="158"/>
       <c r="C11" s="157" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" s="124" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F11" s="124"/>
     </row>
@@ -3264,10 +3315,10 @@
       <c r="B12" s="158"/>
       <c r="C12" s="158"/>
       <c r="D12" s="124" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="124"/>
     </row>
@@ -3276,13 +3327,13 @@
       <c r="B13" s="158"/>
       <c r="C13" s="158"/>
       <c r="D13" s="124" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E13" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="124" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3290,383 +3341,299 @@
       <c r="B14" s="159"/>
       <c r="C14" s="159"/>
       <c r="D14" s="124" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="125" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="124"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="159"/>
       <c r="B15" s="127" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15" s="127"/>
       <c r="D15" s="124" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E15" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="124"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.8" customHeight="1">
+      <c r="A16" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="160" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="160" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="145" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="144" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="161"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="145" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="144" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.6">
+      <c r="A18" s="161"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="144" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.6">
+      <c r="A19" s="161"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="144" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="161"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="126" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="144" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="161"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="144" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="161"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="161"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="124"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="155" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="155" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="155" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="166" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="144" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="167"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="166" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="144" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="27.6">
-      <c r="A18" s="167"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="168" t="s">
-        <v>239</v>
-      </c>
-      <c r="E18" s="144" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27.6">
-      <c r="A19" s="167"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="168" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="144" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="167"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="126" t="s">
+      <c r="D23" s="145" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" s="144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="161"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="145" t="s">
+        <v>259</v>
+      </c>
+      <c r="E24" s="144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="161"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="145" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="161"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="145" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="161"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="145" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="161"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="145" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="161"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="145" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="161"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
+      <c r="D30" s="145" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30" s="144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="161"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="145" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="161"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="126" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="161"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="126" t="s">
         <v>241</v>
       </c>
-      <c r="E20" s="144" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="167"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="126" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="126"/>
-    </row>
-    <row r="22" spans="1:5" ht="27.6">
-      <c r="A22" s="167"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="166" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" s="144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="27.6">
-      <c r="A23" s="167"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="166" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="27.6">
-      <c r="A24" s="167"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="166" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="27.6">
-      <c r="A25" s="167"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="166" t="s">
-        <v>246</v>
-      </c>
-      <c r="E25" s="144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27.6">
-      <c r="A26" s="167"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="166" t="s">
-        <v>247</v>
-      </c>
-      <c r="E26" s="144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="27.6">
-      <c r="A27" s="167"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="166" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" s="144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="27.6">
-      <c r="A28" s="167"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="166" t="s">
-        <v>249</v>
-      </c>
-      <c r="E28" s="144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="27.6">
-      <c r="A29" s="167"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="166" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="27.6">
-      <c r="A30" s="167"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="166" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30" s="144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="167"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="126" t="s">
-        <v>252</v>
-      </c>
-      <c r="E31" s="126" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="167"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="E32" s="144"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="167"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="E33" s="144"/>
+      <c r="E33" s="126" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="167"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
+      <c r="A34" s="161"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="129"/>
       <c r="E34" s="144"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="167"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="129"/>
       <c r="E35" s="144"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="167"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="129"/>
       <c r="E36" s="144"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="167"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="129"/>
       <c r="E37" s="144"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="167"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
+      <c r="A38" s="161"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="129"/>
       <c r="E38" s="144"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="167"/>
-      <c r="B39" s="129"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="169"/>
       <c r="C39" s="129"/>
       <c r="E39" s="144"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="167"/>
-      <c r="B40" s="129"/>
+      <c r="A40" s="161"/>
+      <c r="B40" s="169"/>
       <c r="C40" s="129"/>
       <c r="E40" s="144"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="167"/>
-      <c r="B41" s="129"/>
+      <c r="A41" s="161"/>
+      <c r="B41" s="169"/>
       <c r="C41" s="129"/>
       <c r="E41" s="144"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="167"/>
-      <c r="B42" s="129"/>
+      <c r="A42" s="161"/>
+      <c r="B42" s="169"/>
       <c r="C42" s="129"/>
       <c r="E42" s="144"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="167"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="129"/>
-      <c r="E43" s="144"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="167"/>
-      <c r="B44" s="129"/>
-      <c r="C44" s="129"/>
-      <c r="E44" s="144"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="167"/>
-      <c r="B45" s="129"/>
-      <c r="C45" s="129"/>
-      <c r="E45" s="144"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="167"/>
-      <c r="B46" s="129"/>
-      <c r="C46" s="129"/>
-      <c r="E46" s="144"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="167"/>
-      <c r="B47" s="129"/>
-      <c r="C47" s="129"/>
-      <c r="E47" s="144"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="167"/>
-      <c r="B48" s="129"/>
-      <c r="C48" s="129"/>
-      <c r="E48" s="144"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="167"/>
-      <c r="B49" s="129"/>
-      <c r="C49" s="129"/>
-      <c r="E49" s="144"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="167"/>
-      <c r="B50" s="129"/>
-      <c r="C50" s="129"/>
-      <c r="E50" s="144"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="167"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="E51" s="144"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="167"/>
-      <c r="B52" s="129"/>
-      <c r="C52" s="129"/>
-      <c r="E52" s="144"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="167"/>
-      <c r="B53" s="129"/>
-      <c r="C53" s="129"/>
-      <c r="E53" s="144"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="167"/>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="E54" s="144"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="167"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="129"/>
-      <c r="E55" s="144"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="167"/>
-      <c r="B56" s="144"/>
-      <c r="C56" s="144"/>
-      <c r="E56" s="144"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="167"/>
-      <c r="B57" s="144"/>
-      <c r="C57" s="144"/>
-      <c r="E57" s="144"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="167"/>
-      <c r="B58" s="144"/>
-      <c r="C58" s="144"/>
-      <c r="E58" s="144"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F15"/>
   <mergeCells count="9">
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="A16:A42"/>
+    <mergeCell ref="C23:C33"/>
+    <mergeCell ref="B16:B33"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B2:B14"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A16:A58"/>
-    <mergeCell ref="B16:B31"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C22:C31"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
@@ -3679,11 +3646,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="8" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -3716,75 +3683,75 @@
       <c r="A2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
       <c r="I2" s="68"/>
       <c r="J2" s="69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="69" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
       <c r="I3" s="68"/>
       <c r="J3" s="69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="69" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="69" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="132" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="133" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
       <c r="I5" s="71"/>
       <c r="J5" s="69" t="s">
         <v>38</v>
@@ -3792,34 +3759,34 @@
     </row>
     <row r="6" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="90">
-        <f>COUNTIF(F9:F996,"Passed")</f>
-        <v>34</v>
+        <f>COUNTIF(F9:F1005,"Passed")</f>
+        <v>43</v>
       </c>
       <c r="B6" s="135">
-        <f>COUNTIF(F9:F996,"Failed")</f>
-        <v>1</v>
+        <f>COUNTIF(F9:F1005,"Failed")</f>
+        <v>3</v>
       </c>
       <c r="C6" s="135">
         <f>F6-E6-D6-B6-A6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="135">
-        <f>COUNTIF(F$9:F$996,"Blocked")</f>
+        <f>COUNTIF(F$9:F$1005,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="E6" s="136">
-        <f>COUNTIF(F$9:F$996,"Skipped")</f>
+        <f>COUNTIF(F$9:F$1005,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="162">
-        <f>COUNTA(A9:A996)</f>
-        <v>36</v>
-      </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
+      <c r="F6" s="165">
+        <f>COUNTA(A9:A1005)</f>
+        <v>46</v>
+      </c>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="71"/>
       <c r="J6" s="69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="69" customFormat="1" ht="15" customHeight="1">
@@ -3860,7 +3827,7 @@
     <row r="9" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="76"/>
       <c r="B9" s="76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
@@ -3870,50 +3837,45 @@
       <c r="H9" s="78"/>
       <c r="I9" s="79"/>
     </row>
-    <row r="10" spans="1:10" s="85" customFormat="1" ht="120.9" customHeight="1">
+    <row r="10" spans="1:10" ht="145.19999999999999">
       <c r="A10" s="80" t="str">
         <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Module1-]</v>
       </c>
-      <c r="B10" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="137" t="s">
-        <v>99</v>
+      <c r="B10" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="86"/>
+      <c r="F10" s="80" t="s">
+        <v>96</v>
       </c>
       <c r="G10" s="80"/>
       <c r="H10" s="83"/>
       <c r="I10" s="84"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="80" t="str">
-        <f>IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+    <row r="11" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+    </row>
+    <row r="12" spans="1:10" ht="52.8">
+      <c r="A12" s="80" t="str">
+        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[Module1-1]</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-    </row>
-    <row r="12" spans="1:10" ht="145.19999999999999">
-      <c r="A12" s="80" t="str">
-        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Module1-2]</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>133</v>
@@ -3921,311 +3883,320 @@
       <c r="C12" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G12" s="80"/>
       <c r="H12" s="83"/>
       <c r="I12" s="84"/>
     </row>
-    <row r="13" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="76" t="s">
+    <row r="13" spans="1:10" ht="52.8">
+      <c r="A13" s="80" t="str">
+        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[Module1-2]</v>
+      </c>
+      <c r="B13" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
-    </row>
-    <row r="14" spans="1:10" ht="52.8">
-      <c r="A14" s="80" t="str">
-        <f>IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+      <c r="C13" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
+    </row>
+    <row r="14" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
+    </row>
+    <row r="15" spans="1:10" ht="26.4">
+      <c r="A15" s="80" t="str">
+        <f t="shared" ref="A15:A36" si="0">IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
         <v>[Module1-3]</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-    </row>
-    <row r="15" spans="1:10" ht="52.8">
-      <c r="A15" s="80" t="str">
-        <f>IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[Module1-4]</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+    </row>
+    <row r="16" spans="1:10" ht="39.6">
+      <c r="A16" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>[Module1-4]</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
-    </row>
-    <row r="16" spans="1:10" s="69" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
-    </row>
-    <row r="17" spans="1:9" ht="26.4">
+      <c r="F16" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="83"/>
+    </row>
+    <row r="17" spans="1:8" ht="26.4">
       <c r="A17" s="80" t="str">
-        <f t="shared" ref="A17:A38" si="0">IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[Module1-5]</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E17" s="80"/>
       <c r="F17" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="80"/>
       <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-    </row>
-    <row r="18" spans="1:9" ht="39.6">
+    </row>
+    <row r="18" spans="1:8" ht="39.6">
       <c r="A18" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-6]</v>
       </c>
       <c r="B18" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="D18" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>149</v>
-      </c>
       <c r="F18" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G18" s="80"/>
       <c r="H18" s="83"/>
     </row>
-    <row r="19" spans="1:9" ht="26.4">
+    <row r="19" spans="1:8" ht="39.6">
       <c r="A19" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-7]</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E19" s="80"/>
       <c r="F19" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G19" s="80"/>
       <c r="H19" s="83"/>
     </row>
-    <row r="20" spans="1:9" ht="39.6">
+    <row r="20" spans="1:8" ht="39.6">
       <c r="A20" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-8]</v>
       </c>
       <c r="B20" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="D20" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>155</v>
-      </c>
       <c r="F20" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G20" s="80"/>
       <c r="H20" s="83"/>
     </row>
-    <row r="21" spans="1:9" ht="39.6">
+    <row r="21" spans="1:8" ht="26.4">
       <c r="A21" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-9]</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E21" s="80"/>
       <c r="F21" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G21" s="80"/>
       <c r="H21" s="83"/>
     </row>
-    <row r="22" spans="1:9" ht="39.6">
+    <row r="22" spans="1:8" ht="39.6">
       <c r="A22" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-10]</v>
       </c>
       <c r="B22" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="D22" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>161</v>
-      </c>
       <c r="F22" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G22" s="80"/>
       <c r="H22" s="83"/>
     </row>
-    <row r="23" spans="1:9" ht="26.4">
+    <row r="23" spans="1:8" ht="26.4">
       <c r="A23" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-11]</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E23" s="80"/>
       <c r="F23" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G23" s="80"/>
       <c r="H23" s="83"/>
     </row>
-    <row r="24" spans="1:9" ht="39.6">
+    <row r="24" spans="1:8" ht="39.6">
       <c r="A24" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-12]</v>
       </c>
       <c r="B24" s="80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="D24" s="80" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="80" t="s">
-        <v>167</v>
-      </c>
       <c r="F24" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G24" s="80"/>
       <c r="H24" s="83"/>
     </row>
-    <row r="25" spans="1:9" ht="26.4">
+    <row r="25" spans="1:8" ht="26.4">
       <c r="A25" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-13]</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G25" s="80"/>
       <c r="H25" s="83"/>
     </row>
-    <row r="26" spans="1:9" ht="39.6">
+    <row r="26" spans="1:8" ht="39.6">
       <c r="A26" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-14]</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="F26" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="83"/>
     </row>
-    <row r="27" spans="1:9" ht="26.4">
+    <row r="27" spans="1:8" ht="39.6">
       <c r="A27" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-15]</v>
@@ -4241,12 +4212,12 @@
       </c>
       <c r="E27" s="80"/>
       <c r="F27" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G27" s="80"/>
       <c r="H27" s="83"/>
     </row>
-    <row r="28" spans="1:9" ht="39.6">
+    <row r="28" spans="1:8" ht="39.6">
       <c r="A28" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-16]</v>
@@ -4261,98 +4232,98 @@
         <v>178</v>
       </c>
       <c r="E28" s="80" t="s">
-        <v>179</v>
+        <v>268</v>
       </c>
       <c r="F28" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G28" s="80"/>
       <c r="H28" s="83"/>
     </row>
-    <row r="29" spans="1:9" ht="39.6">
+    <row r="29" spans="1:8" ht="39.6">
       <c r="A29" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-17]</v>
       </c>
       <c r="B29" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="D29" s="80" t="s">
         <v>181</v>
-      </c>
-      <c r="D29" s="80" t="s">
-        <v>182</v>
       </c>
       <c r="E29" s="80"/>
       <c r="F29" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G29" s="80"/>
       <c r="H29" s="83"/>
     </row>
-    <row r="30" spans="1:9" ht="39.6">
+    <row r="30" spans="1:8" ht="39.6">
       <c r="A30" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-18]</v>
       </c>
       <c r="B30" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="80" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="80" t="s">
-        <v>184</v>
-      </c>
       <c r="E30" s="80" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="F30" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G30" s="80"/>
       <c r="H30" s="83"/>
     </row>
-    <row r="31" spans="1:9" ht="39.6">
+    <row r="31" spans="1:8" ht="26.4">
       <c r="A31" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-19]</v>
       </c>
       <c r="B31" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="80" t="s">
         <v>186</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="D31" s="80" t="s">
-        <v>188</v>
       </c>
       <c r="E31" s="80"/>
       <c r="F31" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G31" s="80"/>
       <c r="H31" s="83"/>
     </row>
-    <row r="32" spans="1:9" ht="39.6">
+    <row r="32" spans="1:8" ht="39.6">
       <c r="A32" s="80" t="str">
         <f t="shared" si="0"/>
         <v>[Module1-20]</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D32" s="80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="F32" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="83"/>
@@ -4363,17 +4334,17 @@
         <v>[Module1-21]</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E33" s="80"/>
       <c r="F33" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="83"/>
@@ -4384,19 +4355,19 @@
         <v>[Module1-22]</v>
       </c>
       <c r="B34" s="80" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C34" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="80" t="s">
-        <v>196</v>
-      </c>
       <c r="E34" s="80" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="F34" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G34" s="80"/>
       <c r="H34" s="83"/>
@@ -4407,17 +4378,17 @@
         <v>[Module1-23]</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D35" s="80" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E35" s="80"/>
       <c r="F35" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G35" s="80"/>
       <c r="H35" s="83"/>
@@ -4428,96 +4399,94 @@
         <v>[Module1-24]</v>
       </c>
       <c r="B36" s="80" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C36" s="80" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D36" s="80" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="F36" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" s="80"/>
       <c r="H36" s="83"/>
     </row>
-    <row r="37" spans="1:8" ht="26.4">
-      <c r="A37" s="80" t="str">
-        <f t="shared" si="0"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="77"/>
+      <c r="B37" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="78"/>
+    </row>
+    <row r="38" spans="1:8" ht="66">
+      <c r="A38" s="80" t="str">
+        <f t="shared" ref="A38:A44" si="1">IF(OR(B38&lt;&gt;"",D38&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
         <v>[Module1-25]</v>
       </c>
-      <c r="B37" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="80"/>
-      <c r="H37" s="83"/>
-    </row>
-    <row r="38" spans="1:8" ht="39.6">
-      <c r="A38" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>[Module1-26]</v>
-      </c>
       <c r="B38" s="80" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C38" s="80" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D38" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38" s="80" t="s">
-        <v>209</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E38" s="80"/>
       <c r="F38" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G38" s="80"/>
       <c r="H38" s="83"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="77"/>
-      <c r="B39" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="78"/>
+    <row r="39" spans="1:8" ht="66">
+      <c r="A39" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>[Module1-26]</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="80"/>
+      <c r="H39" s="83"/>
     </row>
     <row r="40" spans="1:8" ht="66">
       <c r="A40" s="80" t="str">
-        <f t="shared" ref="A40:A46" si="1">IF(OR(B40&lt;&gt;"",D40&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <f t="shared" si="1"/>
         <v>[Module1-27]</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C40" s="80" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E40" s="80"/>
       <c r="F40" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G40" s="80"/>
       <c r="H40" s="83"/>
@@ -4528,17 +4497,17 @@
         <v>[Module1-28]</v>
       </c>
       <c r="B41" s="80" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C41" s="80" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E41" s="80"/>
       <c r="F41" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G41" s="80"/>
       <c r="H41" s="83"/>
@@ -4549,17 +4518,17 @@
         <v>[Module1-29]</v>
       </c>
       <c r="B42" s="80" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C42" s="80" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D42" s="80" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E42" s="80"/>
       <c r="F42" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G42" s="80"/>
       <c r="H42" s="83"/>
@@ -4570,137 +4539,363 @@
         <v>[Module1-30]</v>
       </c>
       <c r="B43" s="80" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C43" s="80" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D43" s="80" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="E43" s="80"/>
       <c r="F43" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G43" s="80"/>
       <c r="H43" s="83"/>
     </row>
-    <row r="44" spans="1:8" ht="66">
+    <row r="44" spans="1:8" ht="39.6">
       <c r="A44" s="80" t="str">
         <f t="shared" si="1"/>
         <v>[Module1-31]</v>
       </c>
       <c r="B44" s="80" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D44" s="80" t="s">
         <v>216</v>
       </c>
       <c r="E44" s="80"/>
       <c r="F44" s="80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" s="80"/>
       <c r="H44" s="83"/>
     </row>
-    <row r="45" spans="1:8" ht="66">
+    <row r="45" spans="1:8" ht="52.8">
       <c r="A45" s="80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A45" si="2">IF(OR(B45&lt;&gt;"",D45&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
         <v>[Module1-32]</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E45" s="80"/>
       <c r="F45" s="80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G45" s="80"/>
       <c r="H45" s="83"/>
     </row>
-    <row r="46" spans="1:8" ht="39.6">
+    <row r="46" spans="1:8" ht="52.8">
       <c r="A46" s="80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A46" si="3">IF(OR(B46&lt;&gt;"",D46&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
         <v>[Module1-33]</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D46" s="80" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E46" s="80"/>
       <c r="F46" s="80" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G46" s="80"/>
       <c r="H46" s="83"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="77"/>
-      <c r="B47" s="76" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="78"/>
-    </row>
-    <row r="48" spans="1:8" ht="26.4">
+    <row r="47" spans="1:8" ht="52.8">
+      <c r="A47" s="80" t="str">
+        <f t="shared" ref="A47" si="4">IF(OR(B47&lt;&gt;"",D47&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module1-34]</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="80"/>
+      <c r="H47" s="83"/>
+    </row>
+    <row r="48" spans="1:8" ht="39.6">
       <c r="A48" s="80" t="str">
-        <f>IF(OR(B48&lt;&gt;"",D48&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-14,"##")&amp;"]","")</f>
-        <v>[Module1-34]</v>
+        <f t="shared" ref="A48" si="5">IF(OR(B48&lt;&gt;"",D48&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module1-35]</v>
       </c>
       <c r="B48" s="80" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D48" s="80" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G48" s="80"/>
-      <c r="H48" s="83"/>
-    </row>
-    <row r="49" spans="1:8" ht="26.4">
+      <c r="H48" s="83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="39.6">
       <c r="A49" s="80" t="str">
-        <f>IF(OR(B49&lt;&gt;"",D49&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-14,"##")&amp;"]","")</f>
-        <v>[Module1-35]</v>
+        <f t="shared" ref="A49" si="6">IF(OR(B49&lt;&gt;"",D49&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module1-36]</v>
       </c>
       <c r="B49" s="80" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="E49" s="80"/>
       <c r="F49" s="80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G49" s="80"/>
-      <c r="H49" s="83"/>
+      <c r="H49" s="83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="39.6">
+      <c r="A50" s="80" t="str">
+        <f t="shared" ref="A50" si="7">IF(OR(B50&lt;&gt;"",D50&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module1-37]</v>
+      </c>
+      <c r="B50" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="80"/>
+      <c r="H50" s="83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="39.6">
+      <c r="A51" s="80" t="str">
+        <f t="shared" ref="A51" si="8">IF(OR(B51&lt;&gt;"",D51&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module1-38]</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="80"/>
+      <c r="H51" s="83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="52.8">
+      <c r="A52" s="80" t="str">
+        <f t="shared" ref="A52" si="9">IF(OR(B52&lt;&gt;"",D52&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module1-39]</v>
+      </c>
+      <c r="B52" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="80"/>
+      <c r="H52" s="83" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="39.6">
+      <c r="A53" s="80" t="str">
+        <f t="shared" ref="A53" si="10">IF(OR(B53&lt;&gt;"",D53&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module1-40]</v>
+      </c>
+      <c r="B53" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="80"/>
+      <c r="H53" s="83"/>
+    </row>
+    <row r="54" spans="1:8" ht="52.8">
+      <c r="A54" s="80" t="str">
+        <f t="shared" ref="A54" si="11">IF(OR(B54&lt;&gt;"",D54&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module1-41]</v>
+      </c>
+      <c r="B54" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" s="80"/>
+      <c r="H54" s="83"/>
+    </row>
+    <row r="55" spans="1:8" ht="39.6">
+      <c r="A55" s="80" t="str">
+        <f t="shared" ref="A55" si="12">IF(OR(B55&lt;&gt;"",D55&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[Module1-42]</v>
+      </c>
+      <c r="B55" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="80"/>
+      <c r="H55" s="83"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="77"/>
+      <c r="B56" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="78"/>
+    </row>
+    <row r="57" spans="1:8" ht="26.4">
+      <c r="A57" s="80" t="str">
+        <f>IF(OR(B57&lt;&gt;"",D57&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-14,"##")&amp;"]","")</f>
+        <v>[Module1-43]</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="80"/>
+      <c r="H57" s="83"/>
+    </row>
+    <row r="58" spans="1:8" ht="52.8">
+      <c r="A58" s="80" t="str">
+        <f>IF(OR(B58&lt;&gt;"",D58&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-14,"##")&amp;"]","")</f>
+        <v>[Module1-44]</v>
+      </c>
+      <c r="B58" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="80"/>
+      <c r="H58" s="83"/>
+    </row>
+    <row r="59" spans="1:8" ht="26.4">
+      <c r="A59" s="80" t="str">
+        <f>IF(OR(B59&lt;&gt;"",D59&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-14,"##")&amp;"]","")</f>
+        <v>[Module1-45]</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59" s="80"/>
+      <c r="H59" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4712,7 +4907,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F145">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1 F7:F154">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4766,75 +4961,75 @@
       <c r="A2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
       <c r="I2" s="68"/>
       <c r="J2" s="69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="69" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="160" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
+      <c r="B3" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
       <c r="I3" s="68"/>
       <c r="J3" s="69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="69" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="69" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="132" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" s="133" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="133" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="133" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
       <c r="I5" s="71"/>
       <c r="J5" s="69" t="s">
         <v>38</v>
@@ -4861,15 +5056,15 @@
         <f>COUNTIF(F$9:F$995,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="162">
+      <c r="F6" s="165">
         <f>COUNTA(A9:A995)</f>
         <v>25</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="71"/>
       <c r="J6" s="69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="69" customFormat="1" ht="15" customHeight="1">
@@ -4910,7 +5105,7 @@
     <row r="9" spans="1:11" s="69" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="76"/>
       <c r="B9" s="76" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="77"/>
@@ -4926,19 +5121,19 @@
         <v>[Module2-]</v>
       </c>
       <c r="B10" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>58</v>
-      </c>
       <c r="F10" s="137" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G10" s="80"/>
       <c r="H10" s="91"/>
@@ -4950,17 +5145,17 @@
         <v>[Module2-1]</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" s="139" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="139"/>
       <c r="F11" s="138" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G11" s="138"/>
       <c r="H11" s="140"/>
@@ -4969,7 +5164,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="76"/>
       <c r="B12" s="76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="77"/>
       <c r="D12" s="77"/>
@@ -4985,17 +5180,17 @@
         <v>[Module2-2]</v>
       </c>
       <c r="B13" s="141" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="141" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E13" s="142"/>
       <c r="F13" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G13" s="141"/>
       <c r="H13" s="143"/>
@@ -5007,17 +5202,17 @@
         <v>[Module2-3]</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="91"/>
@@ -5029,17 +5224,17 @@
         <v>[Module2-4]</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E15" s="80"/>
       <c r="F15" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G15" s="87"/>
       <c r="H15" s="88"/>
@@ -5053,17 +5248,17 @@
         <v>[Module2-5]</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D16" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E16" s="80"/>
       <c r="F16" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G16" s="80"/>
       <c r="H16" s="91"/>
@@ -5075,17 +5270,17 @@
         <v>[Module2-6]</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="80"/>
       <c r="F17" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="87"/>
       <c r="H17" s="88"/>
@@ -5096,17 +5291,17 @@
         <v>[Module2-7]</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E18" s="80"/>
       <c r="F18" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G18" s="80"/>
       <c r="H18" s="91"/>
@@ -5117,17 +5312,17 @@
         <v>[Module2-8]</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D19" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E19" s="80"/>
       <c r="F19" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="88"/>
@@ -5138,17 +5333,17 @@
         <v>[Module2-9]</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E20" s="80"/>
       <c r="F20" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G20" s="80"/>
       <c r="H20" s="91"/>
@@ -5159,17 +5354,17 @@
         <v>[Module2-10]</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D21" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E21" s="80"/>
       <c r="F21" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G21" s="87"/>
       <c r="H21" s="88"/>
@@ -5180,17 +5375,17 @@
         <v>[Module2-11]</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D22" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E22" s="80"/>
       <c r="F22" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G22" s="80"/>
       <c r="H22" s="91"/>
@@ -5201,17 +5396,17 @@
         <v>[Module2-12]</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D23" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E23" s="80"/>
       <c r="F23" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="88"/>
@@ -5222,17 +5417,17 @@
         <v>[Module2-13]</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E24" s="80"/>
       <c r="F24" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G24" s="80"/>
       <c r="H24" s="91"/>
@@ -5243,17 +5438,17 @@
         <v>[Module2-14]</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D25" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="88"/>
@@ -5264,17 +5459,17 @@
         <v>[Module2-15]</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" s="80" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D26" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="91"/>
@@ -5285,17 +5480,17 @@
         <v>[Module2-16]</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27" s="80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D27" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E27" s="80"/>
       <c r="F27" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="88"/>
@@ -5306,17 +5501,17 @@
         <v>[Module2-17]</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D28" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G28" s="80"/>
       <c r="H28" s="91"/>
@@ -5327,17 +5522,17 @@
         <v>[Module2-18]</v>
       </c>
       <c r="B29" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" s="80" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D29" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E29" s="80"/>
       <c r="F29" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="88"/>
@@ -5348,17 +5543,17 @@
         <v>[Module2-19]</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D30" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E30" s="80"/>
       <c r="F30" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G30" s="87"/>
       <c r="H30" s="88"/>
@@ -5369,17 +5564,17 @@
         <v>[Module2-20]</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D31" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E31" s="80"/>
       <c r="F31" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G31" s="80"/>
       <c r="H31" s="91"/>
@@ -5390,17 +5585,17 @@
         <v>[Module2-21]</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="142" t="s">
         <v>127</v>
-      </c>
-      <c r="D32" s="142" t="s">
-        <v>130</v>
       </c>
       <c r="E32" s="80"/>
       <c r="F32" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G32" s="87"/>
       <c r="H32" s="88"/>
@@ -5411,17 +5606,17 @@
         <v>[Module2-22]</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D33" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E33" s="80"/>
       <c r="F33" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="91"/>
@@ -5432,17 +5627,17 @@
         <v>[Module2-23]</v>
       </c>
       <c r="B34" s="80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C34" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="142" t="s">
         <v>128</v>
-      </c>
-      <c r="D34" s="142" t="s">
-        <v>131</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="141" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G34" s="87"/>
       <c r="H34" s="88"/>
@@ -5453,17 +5648,17 @@
         <v>[Module2-24]</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D35" s="142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E35" s="80"/>
       <c r="F35" s="141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G35" s="80"/>
       <c r="H35" s="91"/>
@@ -5733,15 +5928,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="B1" s="165" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="168" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="92"/>
@@ -5757,14 +5952,14 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="154"/>
-      <c r="E3" s="163" t="s">
+      <c r="D3" s="156"/>
+      <c r="E3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="163"/>
+      <c r="F3" s="166"/>
       <c r="G3" s="95"/>
       <c r="H3" s="96"/>
     </row>
@@ -5772,14 +5967,14 @@
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="163" t="s">
+      <c r="D4" s="156"/>
+      <c r="E4" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="163"/>
+      <c r="F4" s="166"/>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
     </row>
@@ -5787,33 +5982,33 @@
       <c r="B5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="154" t="str">
+      <c r="C5" s="156" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="163" t="s">
+      <c r="D5" s="156"/>
+      <c r="E5" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="163"/>
+      <c r="F5" s="166"/>
       <c r="G5" s="95"/>
       <c r="H5" s="98" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1">
       <c r="A6" s="92"/>
       <c r="B6" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="164" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
+        <v>58</v>
+      </c>
+      <c r="C6" s="167" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="92"/>
@@ -5840,7 +6035,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="105" t="s">
         <v>33</v>
@@ -5852,13 +6047,13 @@
         <v>38</v>
       </c>
       <c r="G9" s="106" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H9" s="107" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I9" s="107" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5872,15 +6067,15 @@
       </c>
       <c r="D10" s="111">
         <f>Module1!A6</f>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E10" s="111">
         <f>Module1!B6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="111">
         <f>Module1!C6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="111">
         <f>Module1!D6</f>
@@ -5892,7 +6087,7 @@
       </c>
       <c r="I10" s="111">
         <f>Module1!F6</f>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5944,19 +6139,19 @@
       <c r="A13" s="108"/>
       <c r="B13" s="114"/>
       <c r="C13" s="115" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="116">
         <f t="shared" ref="D13:I13" si="0">SUM(D8:D12)</f>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E13" s="116">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="116">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="116">
         <f t="shared" si="0"/>
@@ -5968,7 +6163,7 @@
       </c>
       <c r="I13" s="117">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5985,15 +6180,15 @@
       <c r="A15" s="101"/>
       <c r="B15" s="101"/>
       <c r="C15" s="121" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="101"/>
       <c r="E15" s="122">
         <f>(D13+E13)*100/(I13-H13-G13)</f>
-        <v>98.360655737704917</v>
+        <v>100</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G15" s="101"/>
       <c r="H15" s="72"/>
@@ -6002,15 +6197,15 @@
       <c r="A16" s="101"/>
       <c r="B16" s="101"/>
       <c r="C16" s="121" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="101"/>
       <c r="E16" s="122">
         <f>D13*100/(D13+E13)</f>
-        <v>96.666666666666671</v>
+        <v>94.366197183098592</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G16" s="101"/>
       <c r="H16" s="72"/>
@@ -6055,6 +6250,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1696f36ed93db054fc8f4d62be39c1ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bffc5b2d08ab4fb7daf98c77989d8342" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6428,15 +6632,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9143EA-EABB-44A8-85B6-CBB9E015E4E9}">
   <ds:schemaRefs>
@@ -6456,6 +6651,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{898618FE-843B-48E6-B1F2-2AB76D41F459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6472,12 +6675,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/bao.xlsx
+++ b/bao.xlsx
@@ -120,6 +120,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Tran Thi Lanh:</t>
         </r>
@@ -128,6 +129,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 It does not required to have 3 requirement levels. It depends on your decentralization.</t>
@@ -142,6 +144,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Tran Thi Lanh:</t>
         </r>
@@ -150,6 +153,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Brief description about the case you'll check</t>
@@ -164,6 +168,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Tran Thi Lanh:</t>
         </r>
@@ -172,6 +177,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 GUI
@@ -241,7 +247,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="280">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -949,13 +955,6 @@
 3. Click [Search]</t>
   </si>
   <si>
-    <t>1. Input [DefectID] = 123
-2. Click [Search]</t>
-  </si>
-  <si>
-    <t>The [List defects] table is displayed the result in [DefectID] field begin with 123</t>
-  </si>
-  <si>
     <t>Function Check Layout</t>
   </si>
   <si>
@@ -1015,9 +1014,6 @@
 2. Click [Search]</t>
   </si>
   <si>
-    <t>The message box error is displayed with the following text "Please enter positive number for DefectId"</t>
-  </si>
-  <si>
     <t>1. Input [DefectID] = aaa
 2. Click [Search]</t>
   </si>
@@ -1152,6 +1148,19 @@
   <si>
     <t>Before the test: [Prev] is visible
 After the test: [Prev] is invisible [Selected page] equal 1</t>
+  </si>
+  <si>
+    <t>The message box error is displayed with the following text "Please enter positive number for DefectID"</t>
+  </si>
+  <si>
+    <t>1. Input [DefectID] = 5
+2. Click [Search]</t>
+  </si>
+  <si>
+    <t>The [List defects] table is displayed the result in [DefectID] field begin with 5</t>
+  </si>
+  <si>
+    <t>The message box error is displayed with the following text "Invalid page"</t>
   </si>
 </sst>
 </file>
@@ -1302,12 +1311,14 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2255,6 +2266,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2283,6 +2297,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2292,15 +2315,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2318,9 +2332,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2713,14 +2724,14 @@
   <sheetData>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="5"/>
@@ -2731,11 +2742,11 @@
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2745,36 +2756,36 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="149" t="str">
+      <c r="C6" s="150" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="148"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
       <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
@@ -2930,39 +2941,39 @@
       <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="156" t="str">
+      <c r="C3" s="156"/>
+      <c r="D3" s="157" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="156" t="str">
+      <c r="C4" s="156"/>
+      <c r="D4" s="157" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
     </row>
     <row r="5" spans="2:6" s="42" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154" t="s">
+      <c r="C5" s="154"/>
+      <c r="D5" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="43"/>
@@ -3179,13 +3190,13 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="161" t="s">
         <v>74</v>
       </c>
       <c r="D2" s="124" t="s">
@@ -3197,9 +3208,9 @@
       <c r="F2" s="124"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
       <c r="D3" s="124" t="s">
         <v>94</v>
       </c>
@@ -3209,9 +3220,9 @@
       <c r="F3" s="124"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
       <c r="D4" s="124" t="s">
         <v>95</v>
       </c>
@@ -3221,9 +3232,9 @@
       <c r="F4" s="124"/>
     </row>
     <row r="5" spans="1:6" ht="26.4">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="124" t="s">
         <v>75</v>
       </c>
@@ -3233,9 +3244,9 @@
       <c r="F5" s="124"/>
     </row>
     <row r="6" spans="1:6" ht="26.4">
-      <c r="A6" s="158"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="124" t="s">
         <v>77</v>
       </c>
@@ -3245,9 +3256,9 @@
       <c r="F6" s="124"/>
     </row>
     <row r="7" spans="1:6" ht="26.4">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="124" t="s">
         <v>78</v>
       </c>
@@ -3257,9 +3268,9 @@
       <c r="F7" s="124"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="158"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="157" t="s">
+      <c r="A8" s="162"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="161" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="124" t="s">
@@ -3271,9 +3282,9 @@
       <c r="F8" s="124"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="158"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
       <c r="D9" s="124" t="s">
         <v>81</v>
       </c>
@@ -3285,9 +3296,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="158"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
       <c r="D10" s="124" t="s">
         <v>83</v>
       </c>
@@ -3297,9 +3308,9 @@
       <c r="F10" s="124"/>
     </row>
     <row r="11" spans="1:6" ht="26.4">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="157" t="s">
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="161" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="124" t="s">
@@ -3311,9 +3322,9 @@
       <c r="F11" s="124"/>
     </row>
     <row r="12" spans="1:6" ht="26.4">
-      <c r="A12" s="158"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
       <c r="D12" s="124" t="s">
         <v>86</v>
       </c>
@@ -3323,9 +3334,9 @@
       <c r="F12" s="124"/>
     </row>
     <row r="13" spans="1:6" ht="26.4">
-      <c r="A13" s="158"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
       <c r="D13" s="124" t="s">
         <v>87</v>
       </c>
@@ -3337,9 +3348,9 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="158"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
       <c r="D14" s="124" t="s">
         <v>89</v>
       </c>
@@ -3349,7 +3360,7 @@
       <c r="F14" s="124"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="159"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="127" t="s">
         <v>90</v>
       </c>
@@ -3363,262 +3374,262 @@
       <c r="F15" s="124"/>
     </row>
     <row r="16" spans="1:6" ht="13.8" customHeight="1">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="158" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="158" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="145" t="s">
         <v>221</v>
-      </c>
-      <c r="B16" s="160" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="160" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="145" t="s">
-        <v>223</v>
       </c>
       <c r="E16" s="144" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="161"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
       <c r="D17" s="145" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E17" s="144" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27.6">
-      <c r="A18" s="161"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="161"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
       <c r="D18" s="146" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="144" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27.6">
-      <c r="A19" s="161"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="146" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E19" s="144" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="161"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
       <c r="D20" s="126" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E20" s="144" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="161"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
       <c r="D21" s="126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E21" s="144" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="161"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
       <c r="D22" s="126" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E22" s="126" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="161"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="162" t="s">
+      <c r="A23" s="159"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="160" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="145" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E23" s="144" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="161"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="162"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="160"/>
       <c r="D24" s="145" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E24" s="144" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="161"/>
-      <c r="B25" s="161"/>
-      <c r="C25" s="162"/>
+      <c r="A25" s="159"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="160"/>
       <c r="D25" s="145" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E25" s="144" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="161"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="162"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="160"/>
       <c r="D26" s="145" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E26" s="144" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="161"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="162"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="145" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E27" s="144" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="161"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
       <c r="D28" s="145" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E28" s="144" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="161"/>
-      <c r="B29" s="161"/>
-      <c r="C29" s="162"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="160"/>
       <c r="D29" s="145" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E29" s="144" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="161"/>
-      <c r="B30" s="161"/>
-      <c r="C30" s="162"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
       <c r="D30" s="145" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E30" s="144" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="161"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="162"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="160"/>
       <c r="D31" s="145" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E31" s="144" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="161"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="162"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="160"/>
       <c r="D32" s="129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E32" s="126" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="161"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="162"/>
+      <c r="A33" s="159"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="160"/>
       <c r="D33" s="126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E33" s="126" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="161"/>
-      <c r="B34" s="169"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="129"/>
       <c r="E34" s="144"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="161"/>
-      <c r="B35" s="169"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="129"/>
       <c r="E35" s="144"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="161"/>
-      <c r="B36" s="169"/>
+      <c r="A36" s="159"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="129"/>
       <c r="E36" s="144"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="161"/>
-      <c r="B37" s="169"/>
+      <c r="A37" s="159"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="129"/>
       <c r="E37" s="144"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="161"/>
-      <c r="B38" s="169"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="129"/>
       <c r="E38" s="144"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="161"/>
-      <c r="B39" s="169"/>
+      <c r="A39" s="159"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="129"/>
       <c r="E39" s="144"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="161"/>
-      <c r="B40" s="169"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="129"/>
       <c r="E40" s="144"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="161"/>
-      <c r="B41" s="169"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="129"/>
       <c r="E41" s="144"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="161"/>
-      <c r="B42" s="169"/>
+      <c r="A42" s="159"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="129"/>
       <c r="E42" s="144"/>
     </row>
@@ -3649,8 +3660,8 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="8" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -3683,15 +3694,15 @@
       <c r="A2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="68"/>
       <c r="J2" s="69" t="s">
         <v>96</v>
@@ -3701,15 +3712,15 @@
       <c r="A3" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="68"/>
       <c r="J3" s="69" t="s">
         <v>97</v>
@@ -3719,13 +3730,13 @@
       <c r="A4" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69" t="s">
         <v>98</v>
@@ -3747,11 +3758,11 @@
       <c r="E5" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
       <c r="I5" s="71"/>
       <c r="J5" s="69" t="s">
         <v>38</v>
@@ -3778,12 +3789,12 @@
         <f>COUNTIF(F$9:F$1005,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="165">
+      <c r="F6" s="166">
         <f>COUNTA(A9:A1005)</f>
         <v>46</v>
       </c>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
       <c r="I6" s="71"/>
       <c r="J6" s="69" t="s">
         <v>99</v>
@@ -3909,7 +3920,7 @@
         <v>137</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>96</v>
@@ -4188,7 +4199,7 @@
         <v>173</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F26" s="80" t="s">
         <v>96</v>
@@ -4232,7 +4243,7 @@
         <v>178</v>
       </c>
       <c r="E28" s="80" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F28" s="80" t="s">
         <v>96</v>
@@ -4276,7 +4287,7 @@
         <v>183</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F30" s="80" t="s">
         <v>96</v>
@@ -4320,7 +4331,7 @@
         <v>188</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F32" s="80" t="s">
         <v>96</v>
@@ -4364,7 +4375,7 @@
         <v>193</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F34" s="80" t="s">
         <v>96</v>
@@ -4408,7 +4419,7 @@
         <v>198</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F36" s="80" t="s">
         <v>96</v>
@@ -4560,13 +4571,13 @@
         <v>[Module1-31]</v>
       </c>
       <c r="B44" s="80" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C44" s="80" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="D44" s="80" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="E44" s="80"/>
       <c r="F44" s="80" t="s">
@@ -4581,13 +4592,13 @@
         <v>[Module1-32]</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C45" s="80" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E45" s="80"/>
       <c r="F45" s="80" t="s">
@@ -4602,13 +4613,13 @@
         <v>[Module1-33]</v>
       </c>
       <c r="B46" s="80" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C46" s="80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D46" s="80" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E46" s="80"/>
       <c r="F46" s="80" t="s">
@@ -4623,13 +4634,13 @@
         <v>[Module1-34]</v>
       </c>
       <c r="B47" s="80" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="C47" s="80" t="s">
-        <v>237</v>
-      </c>
       <c r="D47" s="80" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E47" s="80"/>
       <c r="F47" s="80" t="s">
@@ -4644,13 +4655,13 @@
         <v>[Module1-35]</v>
       </c>
       <c r="B48" s="80" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D48" s="80" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="80" t="s">
@@ -4658,7 +4669,7 @@
       </c>
       <c r="G48" s="80"/>
       <c r="H48" s="83" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="39.6">
@@ -4667,13 +4678,13 @@
         <v>[Module1-36]</v>
       </c>
       <c r="B49" s="80" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C49" s="80" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E49" s="80"/>
       <c r="F49" s="80" t="s">
@@ -4681,7 +4692,7 @@
       </c>
       <c r="G49" s="80"/>
       <c r="H49" s="83" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="39.6">
@@ -4690,13 +4701,13 @@
         <v>[Module1-37]</v>
       </c>
       <c r="B50" s="80" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C50" s="80" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D50" s="80" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="E50" s="80"/>
       <c r="F50" s="80" t="s">
@@ -4704,7 +4715,7 @@
       </c>
       <c r="G50" s="80"/>
       <c r="H50" s="83" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="39.6">
@@ -4713,13 +4724,13 @@
         <v>[Module1-38]</v>
       </c>
       <c r="B51" s="80" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C51" s="80" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D51" s="80" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="E51" s="80"/>
       <c r="F51" s="80" t="s">
@@ -4727,7 +4738,7 @@
       </c>
       <c r="G51" s="80"/>
       <c r="H51" s="83" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="52.8">
@@ -4736,13 +4747,13 @@
         <v>[Module1-39]</v>
       </c>
       <c r="B52" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="80" t="s">
         <v>261</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="D52" s="80" t="s">
-        <v>264</v>
       </c>
       <c r="E52" s="80"/>
       <c r="F52" s="80" t="s">
@@ -4750,7 +4761,7 @@
       </c>
       <c r="G52" s="80"/>
       <c r="H52" s="83" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="39.6">
@@ -4759,16 +4770,16 @@
         <v>[Module1-40]</v>
       </c>
       <c r="B53" s="80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C53" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="E53" s="80" t="s">
         <v>262</v>
-      </c>
-      <c r="D53" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="E53" s="80" t="s">
-        <v>265</v>
       </c>
       <c r="F53" s="80" t="s">
         <v>96</v>
@@ -4782,16 +4793,16 @@
         <v>[Module1-41]</v>
       </c>
       <c r="B54" s="80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C54" s="80" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E54" s="80" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F54" s="80" t="s">
         <v>96</v>
@@ -4805,16 +4816,16 @@
         <v>[Module1-42]</v>
       </c>
       <c r="B55" s="80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C55" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="D55" s="80" t="s">
-        <v>278</v>
-      </c>
       <c r="E55" s="80" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F55" s="80" t="s">
         <v>96</v>
@@ -4825,7 +4836,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="77"/>
       <c r="B56" s="76" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C56" s="77"/>
       <c r="D56" s="77"/>
@@ -4840,13 +4851,13 @@
         <v>[Module1-43]</v>
       </c>
       <c r="B57" s="80" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C57" s="80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E57" s="80"/>
       <c r="F57" s="80" t="s">
@@ -4861,13 +4872,13 @@
         <v>[Module1-44]</v>
       </c>
       <c r="B58" s="80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C58" s="80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E58" s="80"/>
       <c r="F58" s="80" t="s">
@@ -4882,13 +4893,13 @@
         <v>[Module1-45]</v>
       </c>
       <c r="B59" s="80" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C59" s="80" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D59" s="80" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E59" s="80"/>
       <c r="F59" s="80" t="s">
@@ -4961,15 +4972,15 @@
       <c r="A2" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="68"/>
       <c r="J2" s="69" t="s">
         <v>96</v>
@@ -4979,15 +4990,15 @@
       <c r="A3" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
       <c r="I3" s="68"/>
       <c r="J3" s="69" t="s">
         <v>97</v>
@@ -4997,13 +5008,13 @@
       <c r="A4" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69" t="s">
         <v>98</v>
@@ -5025,11 +5036,11 @@
       <c r="E5" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
       <c r="I5" s="71"/>
       <c r="J5" s="69" t="s">
         <v>38</v>
@@ -5056,12 +5067,12 @@
         <f>COUNTIF(F$9:F$995,"Skipped")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="165">
+      <c r="F6" s="166">
         <f>COUNTA(A9:A995)</f>
         <v>25</v>
       </c>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
       <c r="I6" s="71"/>
       <c r="J6" s="69" t="s">
         <v>99</v>
@@ -5928,15 +5939,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1">
       <c r="A2" s="92"/>
@@ -5952,14 +5963,14 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="166" t="s">
+      <c r="D3" s="157"/>
+      <c r="E3" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="166"/>
+      <c r="F3" s="167"/>
       <c r="G3" s="95"/>
       <c r="H3" s="96"/>
     </row>
@@ -5967,14 +5978,14 @@
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="166" t="s">
+      <c r="D4" s="157"/>
+      <c r="E4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="166"/>
+      <c r="F4" s="167"/>
       <c r="G4" s="95"/>
       <c r="H4" s="96"/>
     </row>
@@ -5982,15 +5993,15 @@
       <c r="B5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="156" t="str">
+      <c r="C5" s="157" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="166" t="s">
+      <c r="D5" s="157"/>
+      <c r="E5" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="166"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="95"/>
       <c r="H5" s="98" t="s">
         <v>57</v>
@@ -6001,14 +6012,14 @@
       <c r="B6" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="92"/>
@@ -6235,30 +6246,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Number_x0020_Of_x0020_Viewer xmlns="cd6d2771-e08b-42a3-90f8-eca630337659">0</Number_x0020_Of_x0020_Viewer>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
-    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1696f36ed93db054fc8f4d62be39c1ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bffc5b2d08ab4fb7daf98c77989d8342" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6632,33 +6619,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9143EA-EABB-44A8-85B6-CBB9E015E4E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="cd6d2771-e08b-42a3-90f8-eca630337659"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Number_x0020_Of_x0020_Viewer xmlns="cd6d2771-e08b-42a3-90f8-eca630337659">0</Number_x0020_Of_x0020_Viewer>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Priority xmlns="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xsi:nil="true"/>
+    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{898618FE-843B-48E6-B1F2-2AB76D41F459}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6675,4 +6660,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9143EA-EABB-44A8-85B6-CBB9E015E4E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="41A7A25E-88C5-415C-AB9A-358CCBEA8A85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="cd6d2771-e08b-42a3-90f8-eca630337659"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>